--- a/wikipedia_validation_sheets/Trichinosis DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Trichinosis DISNET VALIDATION.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{79816343-271D-6E43-B235-34B60B72822A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB47E1F7-5E14-5143-BF31-F0D0DFC2ADD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="40460" yWindow="460" windowWidth="17640" windowHeight="21140" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="126">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -366,13 +371,43 @@
     <t>Splinter hemorrhage in the nails</t>
   </si>
   <si>
-    <t>subungual, and retinal hemorrhages</t>
-  </si>
-  <si>
     <t>FPCONTEXT</t>
   </si>
   <si>
     <t>FPREAL</t>
+  </si>
+  <si>
+    <t>splinter, haemorrhage</t>
+  </si>
+  <si>
+    <t>Splinter hemorrhage</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>infections</t>
+  </si>
+  <si>
+    <t>Infection</t>
+  </si>
+  <si>
+    <t>facial, edema</t>
+  </si>
+  <si>
+    <t>Edema of face</t>
+  </si>
+  <si>
+    <t>complications</t>
+  </si>
+  <si>
+    <t>Complication</t>
+  </si>
+  <si>
+    <t>retinal, hemorrhages</t>
+  </si>
+  <si>
+    <t>Hemorrhage - retinal</t>
   </si>
 </sst>
 </file>
@@ -448,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -643,51 +678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -724,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -779,10 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -793,11 +779,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -806,6 +790,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -832,7 +819,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1153,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1172,34 +1169,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1243,17 +1240,17 @@
       <c r="E4" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="36" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1282,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1369,7 +1366,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1717,7 +1714,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2561,75 +2558,230 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="38"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="40"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="34" t="s">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="32"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="34"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="35" t="s">
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="20" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="21" t="s">
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="37" t="s">
-        <v>13</v>
-      </c>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2638,7 +2790,10 @@
     <mergeCell ref="F2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C49">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C54">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
